--- a/biology/Zoologie/Homoeomma/Homoeomma.xlsx
+++ b/biology/Zoologie/Homoeomma/Homoeomma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homoeomma est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homoeomma est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 12/11/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 12/11/2023) :
 Homoeomma brasilianum (Chamberlin, 1917)
 Homoeomma chilense Montenegro &amp; Aguilera, 2018
 Homoeomma elegans (Gerschman &amp; Schiapelli, 1958)
@@ -584,12 +600,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Ausserer en 1871.
-Calopelma[2] a été placé en synonymie par Gerschman et Schiapelli en 1972[3].
-Cyclothorax Mello-Leitão, 1923[4] préoccupé par Cyclothorax Frauenfeld, 1868, remplacé par Cyclothoracoides[5] puis de manière superflue par Strongylothorax par André en 1937, a été placé en synonymie par Lucas et Indicatti en 2015[6].
-Butantania[7] a été placé en synonymie par Pérez-Miles, Lucas, Silva Jr. et Bertani en 1996[8].
+Calopelma a été placé en synonymie par Gerschman et Schiapelli en 1972.
+Cyclothorax Mello-Leitão, 1923 préoccupé par Cyclothorax Frauenfeld, 1868, remplacé par Cyclothoracoides puis de manière superflue par Strongylothorax par André en 1937, a été placé en synonymie par Lucas et Indicatti en 2015.
+Butantania a été placé en synonymie par Pérez-Miles, Lucas, Silva Jr. et Bertani en 1996.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ausserer, 1871 : « Beiträge zur Kenntniss der Arachniden-Familie der Territelariae Thorell (Mygalidae Autor). » Verhandllungen der Kaiserlich-Kongiglichen Zoologish-Botanischen Gesellschaft in Wien, vol. 21, p. 117-224 (texte intégral).</t>
         </is>
